--- a/医療文書作成件数20241205-20250227.xlsx
+++ b/医療文書作成件数20241205-20250227.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -522,260 +522,563 @@
     <row r="3" ht="19.2" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>合計</t>
+          <t>植田</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>616</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="19.2" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>鴨林</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
+          <t>沖野</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" ht="19.2" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>小牧</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
+          <t>鴨林</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" ht="19.2" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>渋井</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
+          <t>小牧</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" ht="19.2" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>白岡</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
+          <t>渋井</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" ht="19.2" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>大代</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
+          <t>白岡</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" ht="19.2" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>高林</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
+          <t>大代</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" ht="19.2" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>高宮</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
+          <t>高林</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" ht="19.2" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>中野</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
+          <t>高宮</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" ht="19.2" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>花﨑</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
+          <t>中野</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" ht="19.2" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>松島</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
+          <t>花﨑</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" ht="19.2" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>山本</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
+          <t>松島</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" ht="19.2" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>山本</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="19.2" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>合計</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-    </row>
-    <row r="16" ht="19.2" customHeight="1"/>
+      <c r="B16" t="n">
+        <v>260</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>115</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>31</v>
+      </c>
+      <c r="L16" t="n">
+        <v>616</v>
+      </c>
+    </row>
     <row r="17" ht="19.2" customHeight="1"/>
     <row r="18" ht="19.2" customHeight="1"/>
     <row r="19" ht="19.2" customHeight="1"/>
